--- a/hospital.xlsx
+++ b/hospital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youngjun/GitHub/corona-sickbed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Google_drive/01-data-science/02-applications/corona-sickbed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07D97E4-7FCD-824D-A634-18EC4FB8D733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF49290-F419-6644-BB09-B8A62CF0063F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{4E7B2BDB-084F-E141-A5C9-24E5D944D897}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{4E7B2BDB-084F-E141-A5C9-24E5D944D897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>hospital</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,31 +47,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>명지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>분당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E2835-0F31-6D45-9411-3403538554CF}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -457,7 +469,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>37.362513</v>
@@ -468,7 +480,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>37.393245</v>
@@ -479,7 +491,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>37.642949000000002</v>
@@ -490,7 +502,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>37.017817999999998</v>
@@ -501,7 +513,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>37.294423999999999</v>
@@ -512,7 +524,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>37.283377999999999</v>
@@ -523,13 +535,46 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>37.459128</v>
       </c>
       <c r="C8">
         <v>127.162132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37.754821</v>
+      </c>
+      <c r="C9">
+        <v>126.77967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>37.915205</v>
+      </c>
+      <c r="C10">
+        <v>127.1939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>37.499699999999997</v>
+      </c>
+      <c r="C11">
+        <v>126.76251000000001</v>
       </c>
     </row>
   </sheetData>

--- a/hospital.xlsx
+++ b/hospital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/corona-sickbed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C16F9A6-A6DA-8F45-8952-30C5EC1F7AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ECD0FE-BCBD-CE4C-AF7F-ACCDCAAE6E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{4E7B2BDB-084F-E141-A5C9-24E5D944D897}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>lat</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>일산병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동탄성심</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E2835-0F31-6D45-9411-3403538554CF}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -652,6 +656,17 @@
         <v>126.793077</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>37.216842999999997</v>
+      </c>
+      <c r="C17">
+        <v>127.080099</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hospital.xlsx
+++ b/hospital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Github/corona-sickbed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngjunna/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ECD0FE-BCBD-CE4C-AF7F-ACCDCAAE6E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E724C-37C2-F245-9361-D144BAE5742B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{4E7B2BDB-084F-E141-A5C9-24E5D944D897}"/>
+    <workbookView xWindow="20480" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{4E7B2BDB-084F-E141-A5C9-24E5D944D897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>lat</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>동탄성심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성빈센트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72E2835-0F31-6D45-9411-3403538554CF}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -667,6 +679,39 @@
         <v>127.080099</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>37.278156000000003</v>
+      </c>
+      <c r="C18">
+        <v>127.02781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>37.715788000000003</v>
+      </c>
+      <c r="C19">
+        <v>127.179631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>37.481034000000001</v>
+      </c>
+      <c r="C20">
+        <v>126.79118800000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
